--- a/Data/EC/NIT-9011572364.xlsx
+++ b/Data/EC/NIT-9011572364.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5B8A3E7-D600-43E8-87CC-1716EC68BCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{538B5848-DC05-414F-BE3F-F6C4F86DB432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AEFD4BE3-7D9C-4881-8DAA-F837EE7568E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19A16461-6AA3-4BFA-BCC6-7300A58A580C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,52 +65,79 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45563382</t>
+  </si>
+  <si>
+    <t>KELLY DANID OSORIO CASTELLAR</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
     <t>1238340678</t>
   </si>
   <si>
     <t>FABIANA ISABEL CASTILLO MENDOZA</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
     <t>1911</t>
   </si>
   <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
+    <t>1143338851</t>
+  </si>
+  <si>
+    <t>UBALDO AMETH BANQUEZ GALVIS</t>
+  </si>
+  <si>
+    <t>1047444358</t>
+  </si>
+  <si>
+    <t>DIANA PAOLA GONZALEZ CUADRADO</t>
+  </si>
+  <si>
+    <t>1047490959</t>
+  </si>
+  <si>
+    <t>HONEYWELL JOSE SARAVIA SOLANO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -154,7 +181,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3B672D-CBB9-0913-8E7D-DD9C69FCFCC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B964CD7E-365F-C745-85C7-8BC0E5904774}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,32 +902,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35575B6C-2DF7-41BA-BD9C-A5B4312240E9}">
-  <dimension ref="B2:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0917FE02-42AA-498A-95A4-D2A0FA807700}">
+  <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -909,7 +936,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -920,7 +947,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -931,7 +958,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -942,10 +969,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -958,8 +985,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -974,15 +1001,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>463750</v>
+        <v>726623</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -990,27 +1017,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1030,16 +1057,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1053,27 +1080,27 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>60000</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>33125</v>
@@ -1085,18 +1112,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
@@ -1108,18 +1135,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
@@ -1131,18 +1158,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1154,18 +1181,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
@@ -1177,18 +1204,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1200,18 +1227,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1223,18 +1250,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1246,18 +1273,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1269,18 +1296,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1292,18 +1319,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1315,18 +1342,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1338,57 +1365,149 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="24">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="18">
         <v>33125</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="18">
         <v>828116</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="32" t="s">
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="18">
+        <v>33125</v>
+      </c>
+      <c r="G30" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="18">
+        <v>76296</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1907408</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="18">
+        <v>69637</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1740915</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="E33" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G33" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="H38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="H39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011572364.xlsx
+++ b/Data/EC/NIT-9011572364.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{538B5848-DC05-414F-BE3F-F6C4F86DB432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48D6C1A8-BFB7-4370-AA0B-C969A5DAAE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19A16461-6AA3-4BFA-BCC6-7300A58A580C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF2B0F4D-9F5C-4F86-858B-8969CAA1309C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,54 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1238340678</t>
+  </si>
+  <si>
+    <t>FABIANA ISABEL CASTILLO MENDOZA</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>45563382</t>
   </si>
   <si>
@@ -74,54 +122,6 @@
     <t>2507</t>
   </si>
   <si>
-    <t>1238340678</t>
-  </si>
-  <si>
-    <t>FABIANA ISABEL CASTILLO MENDOZA</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
     <t>1143338851</t>
   </si>
   <si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>HONEYWELL JOSE SARAVIA SOLANO</t>
+  </si>
+  <si>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -181,7 +184,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,7 +239,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -249,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -451,23 +454,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +498,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B964CD7E-365F-C745-85C7-8BC0E5904774}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{441CCCDD-C3D2-A687-E7BA-A1BE99EBFED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -902,32 +905,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0917FE02-42AA-498A-95A4-D2A0FA807700}">
-  <dimension ref="B2:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1103AE3-3BC9-4230-A01C-E7F08DA52192}">
+  <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -936,7 +939,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -947,7 +950,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -958,7 +961,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -969,10 +972,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -985,8 +988,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1001,15 +1004,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>726623</v>
+        <v>989496</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1017,27 +1020,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1057,16 +1060,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1080,27 +1083,27 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>60000</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>1500000</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>33125</v>
@@ -1112,18 +1115,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>33125</v>
@@ -1135,18 +1138,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>33125</v>
@@ -1158,18 +1161,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>33125</v>
@@ -1181,18 +1184,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>33125</v>
@@ -1204,18 +1207,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>33125</v>
@@ -1227,18 +1230,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>33125</v>
@@ -1250,18 +1253,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>33125</v>
@@ -1273,18 +1276,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>33125</v>
@@ -1296,18 +1299,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>33125</v>
@@ -1319,18 +1322,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>33125</v>
@@ -1342,18 +1345,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>33125</v>
@@ -1365,18 +1368,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>33125</v>
@@ -1388,30 +1391,30 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>33125</v>
+        <v>60000</v>
       </c>
       <c r="G30" s="18">
-        <v>828116</v>
+        <v>1500000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>76296</v>
@@ -1434,7 +1437,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>31</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>69637</v>
@@ -1457,57 +1460,149 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="22" t="s">
+    <row r="33" spans="2:10">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="24">
+      <c r="E33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="18">
         <v>56940</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="18">
         <v>1423500</v>
       </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="18">
+        <v>76296</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1907408</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="18">
+        <v>69637</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1740915</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G37" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="H42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="H38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="H39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="C43" s="32"/>
+      <c r="H43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H42:J42"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011572364.xlsx
+++ b/Data/EC/NIT-9011572364.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48D6C1A8-BFB7-4370-AA0B-C969A5DAAE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6AB354F-EB1D-4FAF-8CBD-A701F014A21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EF2B0F4D-9F5C-4F86-858B-8969CAA1309C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9C55FBC8-65C9-4DD7-BD2C-F724BB14E08E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>KELLY DANID OSORIO CASTELLAR</t>
   </si>
   <si>
-    <t>2507</t>
+    <t>2508</t>
   </si>
   <si>
     <t>1143338851</t>
@@ -140,7 +140,7 @@
     <t>HONEYWELL JOSE SARAVIA SOLANO</t>
   </si>
   <si>
-    <t>2508</t>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -184,7 +184,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,9 +239,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -254,7 +252,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -448,29 +448,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,19 +489,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +560,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{441CCCDD-C3D2-A687-E7BA-A1BE99EBFED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58866CE-0E5F-FD21-25D2-E8CB8FA4706E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,80 +911,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1103AE3-3BC9-4230-A01C-E7F08DA52192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B89369-1A9F-4489-A163-8C5C403F2734}">
   <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -988,13 +994,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9011572364</v>
       </c>
@@ -1004,13 +1010,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>989496</v>
       </c>
@@ -1020,8 +1026,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>38</v>
       </c>
@@ -1040,7 +1046,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1079,20 +1085,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>33125</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>828116</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1102,20 +1108,20 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>33125</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>828116</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1125,20 +1131,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>33125</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>828116</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1148,20 +1154,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>33125</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>828116</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1171,20 +1177,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>33125</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>828116</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1194,20 +1200,20 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>33125</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>828116</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1217,20 +1223,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>33125</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>828116</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1240,20 +1246,20 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>33125</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>828116</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1263,20 +1269,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>33125</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>828116</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1286,20 +1292,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>33125</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>828116</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1309,20 +1315,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>33125</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>828116</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1332,20 +1338,20 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>33125</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>828116</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1355,20 +1361,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>33125</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>828116</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1378,20 +1384,20 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>33125</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>828116</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1401,20 +1407,20 @@
       <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>60000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>1500000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1424,20 +1430,20 @@
       <c r="D31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>76296</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>1907408</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1447,20 +1453,20 @@
       <c r="D32" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>69637</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>1740915</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1470,20 +1476,20 @@
       <c r="D33" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>56940</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>1423500</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1493,20 +1499,20 @@
       <c r="D34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>60000</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>1500000</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1516,20 +1522,20 @@
       <c r="D35" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>76296</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>1907408</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1539,58 +1545,58 @@
       <c r="D36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>69637</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>1740915</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="22" t="s">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E37" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="26">
         <v>56940</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="26">
         <v>1423500</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="32" t="s">
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="32"/>
+      <c r="C42" s="34"/>
       <c r="H42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="32" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="32"/>
+      <c r="C43" s="34"/>
       <c r="H43" s="1" t="s">
         <v>45</v>
       </c>
